--- a/P0089/09_FICHAS/N3-FD-General.xlsx
+++ b/P0089/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0089/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A376C2-C9F0-4F04-9A91-7C1BAE35200A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,13 +84,265 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Anexo 1. Población Mojana</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 1. Población Mojana.xlsx</t>
+  </si>
+  <si>
+    <t>Proyecciones poblacionales del DANE para 2023 de los municipios Nechí, Achí, Magangué, Montecristo, San Jacinto del Cauca, Pinillos, Ayapel, Caimito, Guaranda, Majagual, San Benito Abad, San Marcos, Sucre. También hay información sobre la población étnica de cada uno de los municipios.</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>Las variables son población étnica y número de habitantes.</t>
+  </si>
+  <si>
+    <t>DANE, población, población étnica, Nechí, Achí, Magangué, Montecristo, San Jacinto del Cauca, Pinillos, Ayapel, Caimito, Guaranda, Majagual, San Benito Abad, San Marcos, Sucre.</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>Caño_Ventanillas</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 6.1. Shapes Caños.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización del caño Ventanillas como polígono</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>Feature class</t>
+  </si>
+  <si>
+    <t>Polígono</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>No se presenta variable más allá que la localización</t>
+  </si>
+  <si>
+    <t>Caño Ventanillas, localización</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>Caño_Tomala</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización del caño Tomala como polígono</t>
+  </si>
+  <si>
+    <t>Caño Tomala, localización</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>Caño_Guaripa</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización del caño Guaripa como polígono</t>
+  </si>
+  <si>
+    <t>Caño Guaripa, localización</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>Anexo 13. Mapa de localización del proyecto.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto\Anexo 13. Mapa de localización del proyecto..pdf</t>
+  </si>
+  <si>
+    <t>El archivo pdf presenta el mapa de la localización del proyecto en términos muy generales, en donde se abarca toda la región de la Mojana</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Mapa de localización, Mojana, proyecto</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Caños_L</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/03_OTROS/Mojana_III.gdb</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta caños que se encuentran en la región de la Mojana y los kilómetros por rehabilitar</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>En la columna 2 se presenta el nombre del caño y en la columna 23 los km por rehabilitar del caño</t>
+  </si>
+  <si>
+    <t>Rehabilitación de caños, caño, Mojana, rehabilitación</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta los departamentos que involucra la región de la Mojana y el área por restaurar de cada uno</t>
+  </si>
+  <si>
+    <t>La columna 3 presenta el nombre del departamento y la columna 8 el área por restaurar en hectáreas</t>
+  </si>
+  <si>
+    <t>Rehabilitación, departamentos</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>Restauracion_Pinillos</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la estrategia de restauración del Floral en el municipio de Pinillos operada por la hidroeléctrica Ituango SA , en donde se presenta el tipo de cobertura, la estrategia de restauración y observaciones</t>
+  </si>
+  <si>
+    <t>La columna 7 presenta la estrategia de restauración, la 8 y 9 el tipo de cobertura y la 11 observaciones</t>
+  </si>
+  <si>
+    <t>Rehabilitación, El Floral, Pinillos, cobertura, caños</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t>Restauracion_Montecristo</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la estrategia de restauración de Montecristo operada por la hidroeléctrica Ituango SA , en donde se presenta el tipo de cobertura, la estrategia de restauración y observaciones</t>
+  </si>
+  <si>
+    <t>Rehabilitación, Montecristo, cobertura, caños</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>Restauracion_Fase_1</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta la localización de sectores para la fase 1 de restauración del proyecto,</t>
+  </si>
+  <si>
+    <t>La columna 7 presenta la vereda en la cual se encuentra localizada la restauración</t>
+  </si>
+  <si>
+    <t>Restauración, fase 1, vereda</t>
+  </si>
+  <si>
+    <t>R0011</t>
+  </si>
+  <si>
+    <t>Modelo_restauracion_MojanaIII</t>
+  </si>
+  <si>
+    <t>La capa cartográfica presenta el modelo de restauración aplicado en el proyecto, delimitando las zonas que ya cuentan con un plan de restauración. Para las que no, se presenta la priorización para la restauración.</t>
+  </si>
+  <si>
+    <t>La columna 3 describe las áreas y la 4 su clasificación</t>
+  </si>
+  <si>
+    <t>Restauración, modelo de restauración, Mojana, priorización</t>
+  </si>
+  <si>
+    <t>PR0011</t>
+  </si>
+  <si>
+    <t>R0012</t>
+  </si>
+  <si>
+    <t>Anexo 5. Mapa de priorización de áreas de restauración.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 5. Mapa de priorización de áreas de restauración..pdf</t>
+  </si>
+  <si>
+    <t>El archivo pdf presenta el mapa de la localización de áreas para restaurar en la Fase I del proyecto, junto con ubicaciones de ciénagas, drenajes y el caño ventanillas de la región de la Mojana</t>
+  </si>
+  <si>
+    <t>Para una mayor compresión del mapa hace necesario la lectura del "Documento 3" que es el resumen del proyecto</t>
+  </si>
+  <si>
+    <t>Restauración, áreas a restaurar. Caño Ventanillas, La Mojana, ciénagas, drenajes</t>
+  </si>
+  <si>
+    <t>R0013</t>
+  </si>
+  <si>
+    <t>Anexo 6. Caños potenciales priorizados a rehabilitar.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 6. Caños potenciales priorizados a rehabilitar..png</t>
+  </si>
+  <si>
+    <t>El archivo pdf presenta el mapa de la localización decaños priorizados de la región de la Mojana</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>Áreas priorizadas, caños, La Mojana</t>
+  </si>
+  <si>
+    <t>R0014</t>
+  </si>
+  <si>
+    <t>Anexo 9. Áreas priorizadas restauración</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 9. Áreas priorizadas restauración.pdf</t>
+  </si>
+  <si>
+    <t>El archivo pdf presenta el mapa de la localización de áreas priorizadas, áreas de restauración, áreas implementadas y áreas proyectadas, junto con ubicaciones de ciénagas, drenajes y el caño ventanillas de la región de la Mojana</t>
+  </si>
+  <si>
+    <t>Restauración ecológica, La Mojana, ríos, caños, ciénagas, clasificación de áreas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +350,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,8 +417,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,12 +437,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,104 +728,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" ht="15">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" ht="15">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15"/>
+    <row r="17" ht="15"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0089/09_FICHAS/N3-FD-General.xlsx
+++ b/P0089/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0089/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A376C2-C9F0-4F04-9A91-7C1BAE35200A}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3347AFF4-F30E-4D1C-8DA3-88608D47997B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <t>Anexo 13. Mapa de localización del proyecto.</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto\Anexo 13. Mapa de localización del proyecto..pdf</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089/02_PRODUCTOS/3. Documento técnico soporte del proyecto/Anexo 13. Mapa de localización del proyecto..pdf</t>
   </si>
   <si>
     <t>El archivo pdf presenta el mapa de la localización del proyecto en términos muy generales, en donde se abarca toda la región de la Mojana</t>
@@ -437,17 +437,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +732,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -744,758 +745,763 @@
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="102.7109375" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>2023</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>9999</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>9999</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>9999</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="N5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" ht="15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="15">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>9999</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>9999</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>9999</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="N8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" ht="15">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>9999</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="N9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" ht="15">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>9999</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" ht="15">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>9999</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="4" t="s">
+      <c r="N11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" ht="15">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>9999</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="N12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:18" ht="15">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>9999</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="K13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="9" customFormat="1" ht="15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="15">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>9999</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="8" t="s">
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>9999</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="4" t="s">
+      <c r="K15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="7" t="s">
         <v>99</v>
       </c>
     </row>

--- a/P0089/09_FICHAS/N3-FD-General.xlsx
+++ b/P0089/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0089/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3347AFF4-F30E-4D1C-8DA3-88608D47997B}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8F6CF5-1D72-47E2-8087-0F7D7EA5777F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,18 +437,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +731,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -740,7 +739,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
@@ -804,704 +803,704 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>2023</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>9999</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>9999</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>9999</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" ht="15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>9999</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>9999</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>9999</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>9999</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>9999</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="1">
         <v>9999</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
         <v>9999</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="K12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="N12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>9999</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="K13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>9999</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="K14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="1">
         <v>9999</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="K15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>99</v>
       </c>
     </row>
